--- a/pred_ohlcv/54_21/2019-10-26 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LTC ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>666.7711259</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>666.7361259</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>687.4505259</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>687.2462259</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1011.2998259</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1286.6387259</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>787.0915743000002</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>754.0453743</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>796.7704743</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>794.0494743</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>794.0494743</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>761.0095743000001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>761.0095743000001</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>719.4524743000001</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>719.7139743</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>647.6505743</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>650.5519743</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>719.5963743</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>722.1533743</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>722.1533743</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>796.1725743</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>899.6647743</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>867.0991743</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1081.1925743</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1074.6084743</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1077.6764743</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1077.6764743</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1090.9296743</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1090.8915743</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2607.9763743</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4133.0873743</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3790.8735743</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3235.4375743</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3475.5708743</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2933.0077743</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2517.8485743</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2654.8389743</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2838.1350743</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3050.4854743</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3400.189974299999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3396.3874743</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3403.8300743</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3404.6495743</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3439.4439743</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3704.6191743</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3276.16123315</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3499.28274534</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3078.80899583</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2923.85449583</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2854.68299583</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2757.59599583</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2805.50709583</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2857.51859583</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2801.42259583</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2850.56839583</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2850.36839583</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2850.36839583</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2955.43029583</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2944.904295830001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2945.004295830001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2961.82029583</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2982.75649583</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2971.75649583</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3409.889795830001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3403.124095830001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3414.595295830001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3351.770071250001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3403.037071250001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3382.989771250001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3382.989771250001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3374.04317125</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3374.04317125</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3412.52587125</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3412.802271250001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>3290.373971250001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>3290.44627125</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>3452.856671250001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>3513.856671250001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3696.88857125</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3736.75817125</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>3589.986871250001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>3651.399071250001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4376.776471250001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4263.304097450001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4137.475597450001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4745.994181760001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4597.632781760001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4468.449359380002</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4385.066559380001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4401.704459380001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4639.177559380001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4803.767259380002</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4740.820230380002</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4644.201730380002</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4072.055330380002</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3821.564230380002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3821.564230380002</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3821.814230380002</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3889.401130380002</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3885.135430380002</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3848.802030380002</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3848.802030380002</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3756.981130380002</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3653.531413180001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3611.163213180002</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3610.059913180001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3240.77714851</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3240.65144851</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3255.75874851</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3255.60674851</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3255.60674851</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3211.44823152</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>3227.75153152</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>3228.35473152</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3228.35473152</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3238.38183152</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3266.04043152</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3299.67483152</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3424.99153152</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3424.99153152</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3429.61723152</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>3429.61723152</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>3379.61723152</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>3383.16763152</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>3374.60313152</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3435.30303152</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>3435.30303152</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>3435.30303152</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3435.30303152</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3305.30303152</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3370.23643152</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3370.23643152</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>3585.547931520001</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>3585.547931520001</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>3675.163831520001</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>3682.270031520001</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>3623.490631520001</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>3597.89823302</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>3628.18673152</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>3641.22323152</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>3706.86513152</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3812.84502433</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>3812.84502433</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>3836.58977769</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>3836.58977769</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3830.10157769</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3890.27807769</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3962.025477690001</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>4283.17617769</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>4538.07707769</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>5175.21387769</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>5184.50987769</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>5140.359377690001</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>5219.435977690001</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>5007.579377690001</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>5435.253477690001</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>5784.476977690001</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>4673.066877690001</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>4295.959177690002</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>4405.110777690002</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4559.471642650002</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4410.708242650002</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4172.144642650002</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>4126.404842650001</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>3768.422742650001</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>3863.839342650001</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>3705.620442650001</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>3705.620442650001</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>3720.520042650001</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>3717.620042650001</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>3802.317542650002</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3787.624142650001</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3792.144242650002</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3742.564642650002</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3742.564642650002</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3889.202042650002</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3906.318742650002</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>4008.515842650002</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3714.939742650002</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>4074.746642650002</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>4074.746642650002</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3974.622442650002</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>7124.846332330004</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>6834.473932890004</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>6679.703032890004</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>6240.467332890003</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>5848.139532890003</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>6206.700926820004</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>6481.229226820004</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>6237.414626820004</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>6539.457126820003</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>6976.083026820003</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>6759.631595600003</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>6736.736095600004</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>7036.398395600004</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>7080.691395600004</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>6959.672395600004</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>6819.851695600004</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>6686.082095600004</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>6529.383995600005</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>6843.295795600005</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>6134.219570280005</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>6868.871070280004</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>6779.591570280005</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>6994.138270280005</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>7058.538270280004</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>6780.321070280004</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>6808.501763070004</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>6606.677263070004</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>6642.713063070004</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>6709.464663070004</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>6652.434763070003</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>6676.811663070003</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>6634.811663070003</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>6584.660463070003</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>6564.946163070003</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>6316.615463070003</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>5198.951079620004</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>5166.778779620004</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>5211.979379620004</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>5244.142279620004</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>5248.907579620004</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>5272.433379620004</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>5272.433379620004</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>5282.764979620005</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>5291.986179620005</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>5284.437079620005</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>5284.371579620005</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>5285.737379620005</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5300.496179620004</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>5291.804879620004</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>5094.784479620004</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4825.406550210003</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>4818.181950210003</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4825.933150210003</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>4807.590450210003</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>4780.844350210003</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>4762.301450210001</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>4778.003450210002</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 LTC ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>666.7711259</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>666.7361259</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>687.4505259</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>687.2462259</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1011.2998259</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>1286.6387259</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>657.0981743000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>656.4581743000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>652.1523743000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>787.0915743000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>714.8594743000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>732.4976743000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>754.0453743</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>796.7704743</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>794.0494743</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>794.0494743</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>719.4524743000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>719.7139743</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>647.6505743</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>650.5519743</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>719.5963743</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>722.1533743</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>899.6647743</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>867.0991743</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>864.4796742999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>811.4490742999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1081.1925743</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2607.9763743</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4133.0873743</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>3790.8735743</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>3235.4375743</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3475.5708743</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>2933.0077743</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2517.8485743</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2654.8389743</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2838.1350743</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>3050.4854743</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>3400.189974299999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>3396.3874743</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3403.8300743</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3404.6495743</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3439.4439743</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3704.6191743</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3276.16123315</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3499.28274534</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3078.80899583</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2923.85449583</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2854.68299583</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2757.59599583</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2805.50709583</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2857.51859583</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2801.42259583</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2850.56839583</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2850.36839583</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2850.36839583</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2955.43029583</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2944.904295830001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2945.004295830001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2961.82029583</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2982.75649583</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2971.75649583</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3409.889795830001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3403.124095830001</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3414.595295830001</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3408.164371250001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3351.770071250001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3403.037071250001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3382.989771250001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3382.989771250001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3374.04317125</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3374.04317125</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>3412.52587125</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>3412.802271250001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>3290.373971250001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>3290.44627125</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>3452.856671250001</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>3513.856671250001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3696.88857125</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3736.75817125</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>3879.798471250001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>3589.986871250001</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>3651.399071250001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4376.776471250001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>4263.304097450001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4137.475597450001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4745.994181760001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4597.632781760001</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4468.449359380002</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>4385.066559380001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>4401.704459380001</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>4639.177559380001</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>4803.767259380002</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>4740.820230380002</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>4644.201730380002</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4072.055330380002</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3821.564230380002</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3821.564230380002</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>3821.814230380002</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>3889.401130380002</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3885.135430380002</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3848.802030380002</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>3848.802030380002</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>3756.981130380002</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>3653.531413180001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3611.163213180002</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3610.059913180001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3240.77714851</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>3240.65144851</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>3255.75874851</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3255.60674851</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>3255.60674851</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>3211.44823152</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>3227.75153152</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>3228.35473152</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3228.35473152</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>3238.38183152</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3266.04043152</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3299.67483152</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>3424.99153152</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>3424.99153152</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>3429.61723152</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>3429.61723152</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>3379.61723152</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>3383.16763152</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>3374.60313152</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>3435.30303152</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>3435.30303152</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>3435.30303152</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>3435.30303152</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>3305.30303152</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>3370.23643152</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3370.23643152</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>3585.547931520001</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>3585.547931520001</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>3675.163831520001</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>3682.270031520001</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>3658.752431520001</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>3623.490631520001</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>3597.89823302</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>3628.18673152</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>3641.22323152</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>3706.86513152</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3812.84502433</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>3812.84502433</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>3836.58977769</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>3836.58977769</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3830.10157769</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3890.27807769</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3962.025477690001</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>4283.17617769</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>4538.07707769</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>5175.21387769</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>5184.50987769</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>5140.359377690001</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>5219.435977690001</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>5007.579377690001</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>5435.253477690001</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>5784.476977690001</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>4673.066877690001</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>4295.959177690002</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>4405.110777690002</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>4522.816877690002</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>4559.471642650002</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>4410.708242650002</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4172.144642650002</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>4126.404842650001</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>3768.422742650001</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>3861.776042650001</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>3863.839342650001</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>3705.620442650001</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>3705.620442650001</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>3720.520042650001</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>3717.620042650001</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>3802.317542650002</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3787.624142650001</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3792.144242650002</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3742.564642650002</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3742.564642650002</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>3889.202042650002</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>3906.318742650002</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>4008.515842650002</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>3714.939742650002</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>4074.746642650002</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>4074.746642650002</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>3974.622442650002</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>7124.846332330004</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>6834.473932890004</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>6679.703032890004</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>6240.467332890003</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>5848.139532890003</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>6206.700926820004</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>6481.229226820004</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>6237.414626820004</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>6539.457126820003</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>6976.083026820003</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>6759.631595600003</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>6736.736095600004</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>6843.701095600004</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>7036.398395600004</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>7129.426895600004</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>7080.691395600004</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>6959.672395600004</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>6819.851695600004</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>6686.082095600004</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>6529.383995600005</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>6843.295795600005</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>6703.575670280004</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>6134.219570280005</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>6868.871070280004</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>6779.591570280005</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>7058.538270280004</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>6652.434763070003</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>5198.951079620004</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>5166.778779620004</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>5211.979379620004</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>5255.745279620004</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>5244.142279620004</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>5248.907579620004</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>5272.433379620004</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>5272.433379620004</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>5282.764979620005</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>5291.986179620005</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>5284.437079620005</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>5284.371579620005</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>5283.363879620005</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>5285.737379620005</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>5300.496179620004</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>5291.804879620004</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>5094.784479620004</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4825.406550210003</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>4818.181950210003</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4825.933150210003</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>4861.462850210003</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>4864.526050210003</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>4807.590450210003</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>4780.844350210003</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>4762.301450210001</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>4770.879450210002</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>4778.003450210002</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
